--- a/obs.xlsx
+++ b/obs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\imdcl\Documents\Help_NotHelp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADCF6E86-68FC-448B-A99F-C877B8E1DB56}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2921AAD-70A2-4645-9231-E751D18405AA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1360" yWindow="1100" windowWidth="14400" windowHeight="7360" xr2:uid="{21D699D0-A6EA-4948-82A9-6879302F41B8}"/>
+    <workbookView xWindow="6740" yWindow="1770" windowWidth="14400" windowHeight="7360" xr2:uid="{21D699D0-A6EA-4948-82A9-6879302F41B8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="22">
   <si>
     <t>ResNet18</t>
   </si>
@@ -73,6 +73,30 @@
   </si>
   <si>
     <t>Test</t>
+  </si>
+  <si>
+    <t>resnet18_1</t>
+  </si>
+  <si>
+    <t>Adam</t>
+  </si>
+  <si>
+    <t>StepLR with 4 epochs</t>
+  </si>
+  <si>
+    <t>resnet18_01</t>
+  </si>
+  <si>
+    <t>Note</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>resnet18_0 trained on final layer</t>
+  </si>
+  <si>
+    <t>resnet18_02</t>
   </si>
 </sst>
 </file>
@@ -116,9 +140,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -436,67 +463,72 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EF3D2C5-AC65-470E-8362-9C399A8B7C2E}">
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.08984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.08984375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.08984375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="5.90625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.08984375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="18.453125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3" t="s">
+        <v>18</v>
+      </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
       <c r="G3" s="1" t="s">
         <v>11</v>
       </c>
@@ -506,8 +538,9 @@
       <c r="I3" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="J3" s="3"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -527,19 +560,119 @@
         <v>9</v>
       </c>
       <c r="G4">
-        <v>95.52</v>
+        <v>96.42</v>
       </c>
       <c r="H4">
-        <v>96.58</v>
+        <v>97.26</v>
       </c>
       <c r="I4">
-        <v>96.3</v>
+        <v>95.74</v>
+      </c>
+      <c r="J4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5">
+        <v>25</v>
+      </c>
+      <c r="E5">
+        <v>1E-3</v>
+      </c>
+      <c r="F5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5">
+        <v>80.45</v>
+      </c>
+      <c r="H5">
+        <v>83.56</v>
+      </c>
+      <c r="I5">
+        <v>86.11</v>
+      </c>
+      <c r="J5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6">
+        <v>4</v>
+      </c>
+      <c r="C6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6">
+        <v>10</v>
+      </c>
+      <c r="E6">
+        <v>1E-3</v>
+      </c>
+      <c r="F6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G6">
+        <v>96.09</v>
+      </c>
+      <c r="H6">
+        <v>97.6</v>
+      </c>
+      <c r="I6">
+        <v>96.11</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7">
+        <v>4</v>
+      </c>
+      <c r="C7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7">
+        <v>10</v>
+      </c>
+      <c r="E7">
+        <v>1E-3</v>
+      </c>
+      <c r="F7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G7">
+        <v>96.39</v>
+      </c>
+      <c r="H7">
+        <v>97.26</v>
+      </c>
+      <c r="I7">
+        <v>95.74</v>
+      </c>
+      <c r="J7" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
+    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="A1:J1"/>
     <mergeCell ref="G2:I2"/>
-    <mergeCell ref="A1:I1"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="C2:C3"/>
